--- a/data/trans_dic/POLIPATOLOGIA_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.5528708706479365</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6399250292505841</v>
+        <v>0.639925029250584</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3596525840331558</v>
+        <v>0.3595963120978081</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4570147854008531</v>
+        <v>0.4530845214343328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4052834511503385</v>
+        <v>0.4101449624473753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4883898285503628</v>
+        <v>0.490561266581773</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5241148550482586</v>
+        <v>0.5302391929380698</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6080979153211049</v>
+        <v>0.6068888638901494</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6002964950951859</v>
+        <v>0.604011824770505</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6920693928985482</v>
+        <v>0.6925288335924907</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4588763635476427</v>
+        <v>0.4619894008425924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5528367096421002</v>
+        <v>0.5529890095898788</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5295408199957479</v>
+        <v>0.5290701219110541</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6161516943986292</v>
+        <v>0.6149877081957226</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4196097477119646</v>
+        <v>0.4184987981022696</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5246135283347529</v>
+        <v>0.5187643832585906</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4779497217250202</v>
+        <v>0.4814540875392263</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5667650835770661</v>
+        <v>0.5657267391839697</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5826125280476901</v>
+        <v>0.5827134604339137</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6616106363666037</v>
+        <v>0.6633193988987099</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6669876677964812</v>
+        <v>0.6687045815717638</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7441430121112355</v>
+        <v>0.7443908671439777</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5013630226345714</v>
+        <v>0.5028962860329609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5941690432969279</v>
+        <v>0.5938053625999914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5759901931102049</v>
+        <v>0.5763270766037101</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6628381842704475</v>
+        <v>0.6634443783938359</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.180317580172885</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2839932410291523</v>
+        <v>0.2839932410291522</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1984564935984686</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0964798717920555</v>
+        <v>0.09582968047483903</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1374155874115811</v>
+        <v>0.1375557196774263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1649223989776572</v>
+        <v>0.1639750205970755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2642928543719242</v>
+        <v>0.2637644144447297</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1787318088254524</v>
+        <v>0.1808490132082423</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2244562250281106</v>
+        <v>0.224897300423403</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2483289161392404</v>
+        <v>0.2497173779639412</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3747415432581963</v>
+        <v>0.3729589149277022</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1394351167947069</v>
+        <v>0.1399417079500094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1845135258901299</v>
+        <v>0.1849714389941751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2112773180237371</v>
+        <v>0.2103632798832007</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3235890761573723</v>
+        <v>0.3242438956862759</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.124040767556654</v>
+        <v>0.1252712544193527</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1710265905424608</v>
+        <v>0.1709607618582848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1979394787623132</v>
+        <v>0.1972747523932751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3074180074681448</v>
+        <v>0.3062719877970255</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2184409399706436</v>
+        <v>0.2192769190167486</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2696486086108119</v>
+        <v>0.2679949331072735</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.288765108471095</v>
+        <v>0.2888011977883275</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4119327759004729</v>
+        <v>0.4117848522364289</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1649593581717506</v>
+        <v>0.1648524590811387</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.212242251131022</v>
+        <v>0.2119297861412228</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.236454951590039</v>
+        <v>0.2367636207320989</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3516608837174011</v>
+        <v>0.3530630598108221</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1802092971019189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2762416589592913</v>
+        <v>0.2762416589592912</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1855405862772002</v>
@@ -957,7 +957,7 @@
         <v>0.1991152600450661</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3740049162455904</v>
+        <v>0.3740049162455905</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1461975614828023</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08673385978372911</v>
+        <v>0.08612511987028924</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08462297288886401</v>
+        <v>0.08134259797671585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1488861099564272</v>
+        <v>0.1486366849870035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2415682651760976</v>
+        <v>0.2441396872784792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1477543147450348</v>
+        <v>0.1504964878412267</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1616543534654268</v>
+        <v>0.1635008083582318</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1641095619816685</v>
+        <v>0.1630840205690357</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3413135929663441</v>
+        <v>0.3437574529394964</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.123814170157149</v>
+        <v>0.1253865344784879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1320900537647995</v>
+        <v>0.1326125060161731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1662416522672406</v>
+        <v>0.1664021905812088</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3049781232972394</v>
+        <v>0.3014007320874903</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1439351824448444</v>
+        <v>0.1422275402349704</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1462110983687641</v>
+        <v>0.1453973433774673</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2163708329849865</v>
+        <v>0.2173551941178394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3092300144479069</v>
+        <v>0.3119577974620028</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2228781760159328</v>
+        <v>0.2251375327346365</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2414579715730576</v>
+        <v>0.2382836669538676</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.236250876435681</v>
+        <v>0.2366370878558859</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4057836596746063</v>
+        <v>0.4045239722755222</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1684238796269837</v>
+        <v>0.1707204373192293</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1823621128912476</v>
+        <v>0.1857431787299227</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2148524831941439</v>
+        <v>0.2146972266640562</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3503658500569709</v>
+        <v>0.350714824114368</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2391198635137189</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3225762855793704</v>
+        <v>0.3225762855793705</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3350976316574633</v>
@@ -1105,7 +1105,7 @@
         <v>0.3016044705328317</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3938924218981943</v>
+        <v>0.3938924218981945</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2268843297966983</v>
+        <v>0.22851507236995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2245884211624234</v>
+        <v>0.2250813347261823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3052157458724034</v>
+        <v>0.305108651100355</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3701332331762084</v>
+        <v>0.3707011328678524</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.343812366790873</v>
+        <v>0.3447926283677982</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4450432570581745</v>
+        <v>0.4474884524748758</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3049165009296003</v>
+        <v>0.3055442783847763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2906335114410898</v>
+        <v>0.2906434916377375</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3816919394716015</v>
+        <v>0.3825669769178758</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2581016181536104</v>
+        <v>0.2584146668153517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2549515395821288</v>
+        <v>0.2535292432095166</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3386044719154199</v>
+        <v>0.33977251077229</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4043242392623925</v>
+        <v>0.4033989239709308</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3763261672117382</v>
+        <v>0.3787461439749424</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4745776391249973</v>
+        <v>0.4750809987050204</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3282844196808042</v>
+        <v>0.3277800996909007</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3130012300612195</v>
+        <v>0.3133872948364535</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4043109483026541</v>
+        <v>0.4045393545352626</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>371062</v>
+        <v>371004</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>445426</v>
+        <v>441596</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>305724</v>
+        <v>309392</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>282548</v>
+        <v>283804</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>689270</v>
+        <v>697324</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>813512</v>
+        <v>811894</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>597091</v>
+        <v>600786</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>568907</v>
+        <v>569285</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1076907</v>
+        <v>1084213</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1278402</v>
+        <v>1278754</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>926171</v>
+        <v>925347</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>862962</v>
+        <v>861331</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>432921</v>
+        <v>431775</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>511311</v>
+        <v>505610</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>360540</v>
+        <v>363183</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>327890</v>
+        <v>327289</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>766201</v>
+        <v>766334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>885101</v>
+        <v>887387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>663426</v>
+        <v>665134</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>611714</v>
+        <v>611918</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1176616</v>
+        <v>1180215</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1373980</v>
+        <v>1373139</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1007411</v>
+        <v>1008000</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>928349</v>
+        <v>929198</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>163380</v>
+        <v>162279</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>269878</v>
+        <v>270154</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>342442</v>
+        <v>340475</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>589523</v>
+        <v>588344</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>283768</v>
+        <v>287129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>394550</v>
+        <v>395325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>493752</v>
+        <v>496513</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>813711</v>
+        <v>809840</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>457499</v>
+        <v>459161</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>686715</v>
+        <v>688419</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>858776</v>
+        <v>855060</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1424426</v>
+        <v>1427308</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>210052</v>
+        <v>212136</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>335889</v>
+        <v>335760</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>410999</v>
+        <v>409618</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>685716</v>
+        <v>683160</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>346813</v>
+        <v>348140</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>473989</v>
+        <v>471082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>574152</v>
+        <v>574223</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>894468</v>
+        <v>894146</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>541246</v>
+        <v>540895</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>789915</v>
+        <v>788752</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>961115</v>
+        <v>962370</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1547997</v>
+        <v>1554169</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>47826</v>
+        <v>47490</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40719</v>
+        <v>39141</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81424</v>
+        <v>81287</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>171897</v>
+        <v>173727</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>70392</v>
+        <v>71698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>74140</v>
+        <v>74987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>90119</v>
+        <v>89556</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>250824</v>
+        <v>252619</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>127259</v>
+        <v>128875</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>124140</v>
+        <v>124631</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>182205</v>
+        <v>182381</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>441140</v>
+        <v>435965</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>79367</v>
+        <v>78425</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70354</v>
+        <v>69962</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>118330</v>
+        <v>118869</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>220044</v>
+        <v>221985</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>106182</v>
+        <v>107258</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>110740</v>
+        <v>109284</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>129735</v>
+        <v>129947</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>298201</v>
+        <v>297275</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>173109</v>
+        <v>175470</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>171386</v>
+        <v>174564</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>235484</v>
+        <v>235314</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>506792</v>
+        <v>507296</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>775895</v>
+        <v>781472</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>758574</v>
+        <v>760239</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1074568</v>
+        <v>1074191</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1315539</v>
+        <v>1317557</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1214380</v>
+        <v>1217842</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1659258</v>
+        <v>1668374</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2126491</v>
+        <v>2130869</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2008196</v>
+        <v>2008265</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2766881</v>
+        <v>2773224</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>882651</v>
+        <v>883722</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>861129</v>
+        <v>856325</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1192119</v>
+        <v>1196231</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1437061</v>
+        <v>1433773</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1329222</v>
+        <v>1337769</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1769371</v>
+        <v>1771248</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2289459</v>
+        <v>2285942</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2162750</v>
+        <v>2165418</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2930846</v>
+        <v>2932502</v>
       </c>
     </row>
     <row r="20">
